--- a/src/assets/importVendor.xlsx
+++ b/src/assets/importVendor.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10608"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E34CE1A6-A8BA-8C4F-93F6-01005ABC13AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A99FD3F-D15E-42F9-B884-8DFE61E12B08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="29400" windowHeight="16480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12432" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Vendor Master" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Vendor No</t>
   </si>
@@ -41,53 +41,17 @@
     <t>Phone No</t>
   </si>
   <si>
-    <t>2024-Non-Specified person U/S 206AB</t>
-  </si>
-  <si>
-    <t>PAN OPERATIVE/N.A.</t>
-  </si>
-  <si>
-    <t>["medha.rajwade@svkm.ac.in;mamta.masurkr@svkm.ac.in"]</t>
-  </si>
-  <si>
-    <t>["12345678, 456423400"]</t>
-  </si>
-  <si>
-    <t>2025-Non-Specified person U/S 206AB</t>
-  </si>
-  <si>
-    <t>PAN INOPERATIVE</t>
-  </si>
-  <si>
-    <t>206AB check on website</t>
-  </si>
-  <si>
-    <t>2024-Specified Person U/S 206AB</t>
-  </si>
-  <si>
-    <t>Milan and Co.</t>
-  </si>
-  <si>
-    <t>MILANABC</t>
-  </si>
-  <si>
-    <t>26MILAN3304F1ZG</t>
-  </si>
-  <si>
-    <t>2025-Specified Person U/S 206AB</t>
-  </si>
-  <si>
-    <t>Compliance Values ( Delete Before Upload )</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pan Values ( Delete Before Upload ) </t>
+    <t>Addl 1</t>
+  </si>
+  <si>
+    <t>Addl 2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -100,6 +64,7 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
@@ -502,15 +467,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.83984375" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="54.83203125" customWidth="1"/>
+    <col min="1" max="1" width="54.83984375" customWidth="1"/>
     <col min="2" max="2" width="53" customWidth="1"/>
     <col min="3" max="3" width="15" customWidth="1"/>
     <col min="4" max="4" width="18" customWidth="1"/>
@@ -520,7 +485,7 @@
     <col min="8" max="8" width="41" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -545,71 +510,31 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>999999</v>
-      </c>
-      <c r="B2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F2" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A12" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A13" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A14" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A15" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A16" s="2" t="s">
-        <v>12</v>
-      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+    </row>
+    <row r="12" spans="1:10" ht="15.3">
+      <c r="A12" s="2"/>
+    </row>
+    <row r="13" spans="1:10" ht="15.3">
+      <c r="A13" s="2"/>
+    </row>
+    <row r="14" spans="1:10" ht="15.3">
+      <c r="A14" s="2"/>
+    </row>
+    <row r="15" spans="1:10" ht="15.3">
+      <c r="A15" s="2"/>
+    </row>
+    <row r="16" spans="1:10" ht="15.3">
+      <c r="A16" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
